--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkByExaminer.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkByExaminer.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Session(2018 2019)" sheetId="1" r:id="rId1"/>
+    <sheet name="Session(2019)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Examiner name</t>
+    <t>Examiner's name</t>
   </si>
   <si>
     <t>Average mark</t>
@@ -23,13 +23,13 @@
     <t>Elena</t>
   </si>
   <si>
-    <t>6,62</t>
+    <t>6,5</t>
   </si>
   <si>
     <t>Petr</t>
   </si>
   <si>
-    <t>7</t>
+    <t>5</t>
   </si>
   <si>
     <t>Oleg</t>
@@ -41,7 +41,7 @@
     <t>Anna</t>
   </si>
   <si>
-    <t>3,75</t>
+    <t>4,14</t>
   </si>
 </sst>
 </file>

--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkByExaminer.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkByExaminer.xlsx
@@ -23,13 +23,13 @@
     <t>Elena</t>
   </si>
   <si>
-    <t>6,5</t>
+    <t>6,62</t>
   </si>
   <si>
     <t>Petr</t>
   </si>
   <si>
-    <t>5</t>
+    <t>7</t>
   </si>
   <si>
     <t>Oleg</t>
@@ -41,7 +41,7 @@
     <t>Anna</t>
   </si>
   <si>
-    <t>4,14</t>
+    <t>3,75</t>
   </si>
 </sst>
 </file>

--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkByExaminer.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkByExaminer.xlsx
@@ -93,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -143,6 +143,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
